--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Nouns" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="1510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1617">
   <si>
     <t>Nouns</t>
   </si>
@@ -4851,6 +4851,360 @@
   </si>
   <si>
     <t>Schauen</t>
+  </si>
+  <si>
+    <t>streiten</t>
+  </si>
+  <si>
+    <t>Argue / Fight</t>
+  </si>
+  <si>
+    <t>besetzen</t>
+  </si>
+  <si>
+    <t>Occupy</t>
+  </si>
+  <si>
+    <t>Die Eigenschaft</t>
+  </si>
+  <si>
+    <t>Charachtaristic / Feature</t>
+  </si>
+  <si>
+    <t>Das Ereignis</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Der Fortschritt</t>
+  </si>
+  <si>
+    <t>Progress / Improvement</t>
+  </si>
+  <si>
+    <t>Die Erfahrung</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>selbstbewusst</t>
+  </si>
+  <si>
+    <t>Self-Confident</t>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>öflich</t>
+    </r>
+  </si>
+  <si>
+    <t>Polite</t>
+  </si>
+  <si>
+    <t>Der Anhang</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Die Festplatte</t>
+  </si>
+  <si>
+    <t>Hard Disk</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>abschicken</t>
+  </si>
+  <si>
+    <t>anschalten</t>
+  </si>
+  <si>
+    <t>Turn on</t>
+  </si>
+  <si>
+    <t>ausschalten</t>
+  </si>
+  <si>
+    <t>Turn off</t>
+  </si>
+  <si>
+    <t>empfangen</t>
+  </si>
+  <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>herunterladen</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>umschalten</t>
+  </si>
+  <si>
+    <t>Switch / Change / Toggle</t>
+  </si>
+  <si>
+    <t>zappen</t>
+  </si>
+  <si>
+    <t>Flip through TV Channels</t>
+  </si>
+  <si>
+    <t>Der Anrufbeantworter</t>
+  </si>
+  <si>
+    <t>Telephone Answering Machine</t>
+  </si>
+  <si>
+    <t>Das Netz</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Die Sprachmitteilung</t>
+  </si>
+  <si>
+    <t>Voice Message</t>
+  </si>
+  <si>
+    <t>dauernd</t>
+  </si>
+  <si>
+    <t>Permenant / Continually</t>
+  </si>
+  <si>
+    <t>Die Gebühr</t>
+  </si>
+  <si>
+    <t>Charge / Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Der Vertrag</t>
+  </si>
+  <si>
+    <t>Agreement / Contract</t>
+  </si>
+  <si>
+    <t>Pro und Contra</t>
+  </si>
+  <si>
+    <t>Pros and Cons</t>
+  </si>
+  <si>
+    <t>Die These</t>
+  </si>
+  <si>
+    <t>Thesis / Hypothesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sparen </t>
+  </si>
+  <si>
+    <t>Save  (يوفر)</t>
+  </si>
+  <si>
+    <t>undenkbar</t>
+  </si>
+  <si>
+    <t>unthinkable / unimaginable</t>
+  </si>
+  <si>
+    <t>Das Gericht</t>
+  </si>
+  <si>
+    <t>Justice (محكمة)</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Das Ehrenamt</t>
+  </si>
+  <si>
+    <t>Honory Post / Volunteering</t>
+  </si>
+  <si>
+    <t>Der Adler</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>Der Zuschauer</t>
+  </si>
+  <si>
+    <t>Viewer / Spectater</t>
+  </si>
+  <si>
+    <t>Der Besucher</t>
+  </si>
+  <si>
+    <t>Visitor</t>
+  </si>
+  <si>
+    <t>Der Bund</t>
+  </si>
+  <si>
+    <t>League / Union</t>
+  </si>
+  <si>
+    <t>stattfinden</t>
+  </si>
+  <si>
+    <t>Take Place</t>
+  </si>
+  <si>
+    <t>Der Krieg</t>
+  </si>
+  <si>
+    <t>War</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>Die Grenze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Border  </t>
+  </si>
+  <si>
+    <t>umgekehrt</t>
+  </si>
+  <si>
+    <t>Inverse / Vice Versa</t>
+  </si>
+  <si>
+    <t>friedlich</t>
+  </si>
+  <si>
+    <t>Peacful</t>
+  </si>
+  <si>
+    <t>heutig</t>
+  </si>
+  <si>
+    <t>Present-day (حاليا)</t>
+  </si>
+  <si>
+    <t>Die Einheit</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>Das Gesetze</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Die Regierung</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Immigrant</t>
+  </si>
+  <si>
+    <t>Der / Die Zuwander(er) / in</t>
+  </si>
+  <si>
+    <t>Die Gleichberechtigung</t>
+  </si>
+  <si>
+    <t>bisher</t>
+  </si>
+  <si>
+    <t>So far / Until now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take care </t>
+  </si>
+  <si>
+    <r>
+      <t>sich k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ümmern um</t>
+    </r>
+  </si>
+  <si>
+    <t>Die Freiheit</t>
+  </si>
+  <si>
+    <t>Freedom</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Die Steuer</t>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ämpfen</t>
+    </r>
+  </si>
+  <si>
+    <t>Battle / Fight</t>
+  </si>
+  <si>
+    <t>Die Leistung</t>
+  </si>
+  <si>
+    <t>Achievement</t>
+  </si>
+  <si>
+    <t>Der Einfluss</t>
+  </si>
+  <si>
+    <t>Influence</t>
+  </si>
+  <si>
+    <t>stark</t>
+  </si>
+  <si>
+    <t>Strong</t>
   </si>
 </sst>
 </file>
@@ -5231,8 +5585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="G162" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5244,7 +5598,7 @@
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="31.85546875" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8106,6 +8460,246 @@
       </c>
       <c r="J145" t="s">
         <v>1499</v>
+      </c>
+    </row>
+    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I146" t="s">
+        <v>1514</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I147" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I148" t="s">
+        <v>1518</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="149" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I149" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I150" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="151" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I151" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="152" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I152" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="153" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I153" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="154" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I154" t="s">
+        <v>1548</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="155" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I155" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="156" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I156" t="s">
+        <v>1555</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="157" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I157" t="s">
+        <v>1557</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="158" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I158" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="159" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I159" t="s">
+        <v>1565</v>
+      </c>
+      <c r="J159" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="160" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I160" t="s">
+        <v>1569</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I161" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J161" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="162" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I162" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J162" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="163" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I163" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="164" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I164" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="165" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I165" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="166" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I166" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="167" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I167" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J167" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="168" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I168" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J168" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="169" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I169" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="170" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I170" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="171" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I171" t="s">
+        <v>1600</v>
+      </c>
+      <c r="J171" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="172" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I172" t="s">
+        <v>1605</v>
+      </c>
+      <c r="J172" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="173" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I173" t="s">
+        <v>1608</v>
+      </c>
+      <c r="J173" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="174" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I174" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="175" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I175" t="s">
+        <v>1613</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8117,10 +8711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G105"/>
+  <dimension ref="C1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B98" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8129,7 +8723,7 @@
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
@@ -9557,6 +10151,131 @@
       </c>
       <c r="G105" t="s">
         <v>1489</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F116" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>1554</v>
       </c>
     </row>
   </sheetData>
@@ -9567,10 +10286,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G86"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="C1:G95"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9579,7 +10299,7 @@
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
@@ -10732,10 +11452,83 @@
         <v>1483</v>
       </c>
     </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>1615</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1616</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F56" r:id="rId1" display="https://dict.leo.org/german-english/gem%C3%BCtlich"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="1741">
   <si>
     <t>Nouns</t>
   </si>
@@ -4437,9 +4437,6 @@
     <t>Arrange a Date</t>
   </si>
   <si>
-    <t>ärgern</t>
-  </si>
-  <si>
     <t>Irritate / Anger / Annoy</t>
   </si>
   <si>
@@ -4996,9 +4993,6 @@
     <t>Charge / Fee</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Der Vertrag</t>
   </si>
   <si>
@@ -5205,6 +5199,395 @@
   </si>
   <si>
     <t>Strong</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>Respect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">achten auf </t>
+  </si>
+  <si>
+    <t>Pay Attention</t>
+  </si>
+  <si>
+    <t>ärgeren</t>
+  </si>
+  <si>
+    <t>Die Auskunft</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Das Dorf</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ütend</t>
+    </r>
+  </si>
+  <si>
+    <t>Angry / Mad</t>
+  </si>
+  <si>
+    <t>Der Antrag</t>
+  </si>
+  <si>
+    <t>Die Anmeldung</t>
+  </si>
+  <si>
+    <t>Registration / Application</t>
+  </si>
+  <si>
+    <t>geehrt</t>
+  </si>
+  <si>
+    <t>Honored</t>
+  </si>
+  <si>
+    <t>Die Brücke</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>lend (يستعير)</t>
+  </si>
+  <si>
+    <t>Die Herkunft</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Die Gesellschaft</t>
+  </si>
+  <si>
+    <t>Society</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>erhalten</t>
+  </si>
+  <si>
+    <t>Get / Receive</t>
+  </si>
+  <si>
+    <t>Der Vortrag</t>
+  </si>
+  <si>
+    <t>Speech (خطاب)</t>
+  </si>
+  <si>
+    <t>ehrenamtlich</t>
+  </si>
+  <si>
+    <t>Honorary / Voluntary</t>
+  </si>
+  <si>
+    <t>staatlich</t>
+  </si>
+  <si>
+    <t>National / Public / Governmental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achievement </t>
+  </si>
+  <si>
+    <t>zustimmen</t>
+  </si>
+  <si>
+    <t>Agree / Approve</t>
+  </si>
+  <si>
+    <t>widersprechen</t>
+  </si>
+  <si>
+    <t>Answer back</t>
+  </si>
+  <si>
+    <t>Die Unsicherheit</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>Das Benehmen</t>
+  </si>
+  <si>
+    <t>Behavior / Manners</t>
+  </si>
+  <si>
+    <t>Die Umfrage</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Die Verhaltensweise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behavior  </t>
+  </si>
+  <si>
+    <t>reden</t>
+  </si>
+  <si>
+    <t>ausspucken</t>
+  </si>
+  <si>
+    <t>Spit</t>
+  </si>
+  <si>
+    <t>gähnen</t>
+  </si>
+  <si>
+    <t>Yawn</t>
+  </si>
+  <si>
+    <t>Die Veranstaltung</t>
+  </si>
+  <si>
+    <t>Presentation / Event</t>
+  </si>
+  <si>
+    <t>einschalten</t>
+  </si>
+  <si>
+    <t>rülpsen</t>
+  </si>
+  <si>
+    <t>burp (يتجشئ)</t>
+  </si>
+  <si>
+    <t>Der Fehler</t>
+  </si>
+  <si>
+    <t>Die Vorbereitung</t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t>selbstverständlich</t>
+  </si>
+  <si>
+    <t>Of Course</t>
+  </si>
+  <si>
+    <t>Die Garderobe</t>
+  </si>
+  <si>
+    <t>Wardrobe (خزانة الثياب)</t>
+  </si>
+  <si>
+    <t>wunderbar</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>Das Stück</t>
+  </si>
+  <si>
+    <t>Piece</t>
+  </si>
+  <si>
+    <t>Begreifen</t>
+  </si>
+  <si>
+    <t>Understand / Recognize</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Das Gedicht</t>
+  </si>
+  <si>
+    <t>Poem</t>
+  </si>
+  <si>
+    <t>Die Vergnügung</t>
+  </si>
+  <si>
+    <t>Pleasure</t>
+  </si>
+  <si>
+    <t>Der Himmel</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>Der Vogel</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>Der Duft</t>
+  </si>
+  <si>
+    <t>Smell / Perfume</t>
+  </si>
+  <si>
+    <t>Das Laub</t>
+  </si>
+  <si>
+    <t>Leaves (أوراق شجر)</t>
+  </si>
+  <si>
+    <t>Das Märchen</t>
+  </si>
+  <si>
+    <t>Myth</t>
+  </si>
+  <si>
+    <t>Der Mond</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Der Kuss</t>
+  </si>
+  <si>
+    <t>Kiss</t>
+  </si>
+  <si>
+    <t>Die Ebene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level </t>
+  </si>
+  <si>
+    <t>verlangen</t>
+  </si>
+  <si>
+    <t>Die Anerkennung</t>
+  </si>
+  <si>
+    <t>Recognition</t>
+  </si>
+  <si>
+    <t>Die Anrede</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>üblich</t>
+  </si>
+  <si>
+    <t>Common / usual</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>Disturb / Bother</t>
+  </si>
+  <si>
+    <t>ziemlich = ganz</t>
+  </si>
+  <si>
+    <t>Pretty / quite</t>
+  </si>
+  <si>
+    <t>schmutzig</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>wegwerfen</t>
+  </si>
+  <si>
+    <t>Through away</t>
+  </si>
+  <si>
+    <t>Der Speiserest</t>
+  </si>
+  <si>
+    <t>Leftover</t>
+  </si>
+  <si>
+    <t>lebenswert</t>
+  </si>
+  <si>
+    <t>Livable / Worh Living</t>
+  </si>
+  <si>
+    <t>liebenswert</t>
+  </si>
+  <si>
+    <t>Lovable / Likable</t>
+  </si>
+  <si>
+    <t>übrigens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By The Way </t>
+  </si>
+  <si>
+    <t>Die Fassade</t>
+  </si>
+  <si>
+    <t>Front (واجهة)</t>
+  </si>
+  <si>
+    <t>Das Holz</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>bunt</t>
+  </si>
+  <si>
+    <t>Colorful</t>
+  </si>
+  <si>
+    <t>unbedingt</t>
+  </si>
+  <si>
+    <t>Absolutely / Necessarily</t>
+  </si>
+  <si>
+    <t>verleihen</t>
+  </si>
+  <si>
+    <t>Das Hochhäuser</t>
+  </si>
+  <si>
+    <t>Skyscraper</t>
+  </si>
+  <si>
+    <t>bequem</t>
   </si>
 </sst>
 </file>
@@ -5585,8 +5968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView topLeftCell="G162" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I176" sqref="I176"/>
+    <sheetView topLeftCell="G198" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H198" activeCellId="1" sqref="I210 H198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6280,7 +6663,7 @@
       </c>
       <c r="H36" s="8"/>
       <c r="I36" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="J36" t="s">
         <v>826</v>
@@ -7830,10 +8213,10 @@
       </c>
       <c r="H113" s="7"/>
       <c r="I113" t="s">
+        <v>1387</v>
+      </c>
+      <c r="J113" t="s">
         <v>1388</v>
-      </c>
-      <c r="J113" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="114" spans="3:10" x14ac:dyDescent="0.25">
@@ -7851,7 +8234,7 @@
       </c>
       <c r="H114" s="7"/>
       <c r="I114" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="J114" t="s">
         <v>793</v>
@@ -7872,10 +8255,10 @@
       </c>
       <c r="H115" s="7"/>
       <c r="I115" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J115" t="s">
         <v>1395</v>
-      </c>
-      <c r="J115" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="116" spans="3:10" x14ac:dyDescent="0.25">
@@ -7893,10 +8276,10 @@
       </c>
       <c r="H116" s="7"/>
       <c r="I116" t="s">
+        <v>1396</v>
+      </c>
+      <c r="J116" t="s">
         <v>1397</v>
-      </c>
-      <c r="J116" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="117" spans="3:10" x14ac:dyDescent="0.25">
@@ -7914,10 +8297,10 @@
       </c>
       <c r="H117" s="7"/>
       <c r="I117" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J117" t="s">
         <v>1399</v>
-      </c>
-      <c r="J117" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.25">
@@ -7935,10 +8318,10 @@
       </c>
       <c r="H118" s="7"/>
       <c r="I118" t="s">
+        <v>1402</v>
+      </c>
+      <c r="J118" t="s">
         <v>1403</v>
-      </c>
-      <c r="J118" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="119" spans="3:10" x14ac:dyDescent="0.25">
@@ -7956,10 +8339,10 @@
       </c>
       <c r="H119" s="7"/>
       <c r="I119" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J119" t="s">
         <v>1413</v>
-      </c>
-      <c r="J119" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="120" spans="3:10" x14ac:dyDescent="0.25">
@@ -7977,10 +8360,10 @@
       </c>
       <c r="H120" s="7"/>
       <c r="I120" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="J120" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="121" spans="3:10" x14ac:dyDescent="0.25">
@@ -7998,10 +8381,10 @@
       </c>
       <c r="H121" s="7"/>
       <c r="I121" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J121" t="s">
         <v>1419</v>
-      </c>
-      <c r="J121" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="122" spans="3:10" x14ac:dyDescent="0.25">
@@ -8022,7 +8405,7 @@
         <v>524</v>
       </c>
       <c r="J122" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="123" spans="3:10" x14ac:dyDescent="0.25">
@@ -8040,10 +8423,10 @@
       </c>
       <c r="H123" s="7"/>
       <c r="I123" t="s">
+        <v>1421</v>
+      </c>
+      <c r="J123" t="s">
         <v>1422</v>
-      </c>
-      <c r="J123" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="124" spans="3:10" x14ac:dyDescent="0.25">
@@ -8061,10 +8444,10 @@
       </c>
       <c r="H124" s="7"/>
       <c r="I124" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J124" t="s">
         <v>1424</v>
-      </c>
-      <c r="J124" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="125" spans="3:10" x14ac:dyDescent="0.25">
@@ -8082,10 +8465,10 @@
       </c>
       <c r="H125" s="7"/>
       <c r="I125" t="s">
+        <v>1425</v>
+      </c>
+      <c r="J125" t="s">
         <v>1426</v>
-      </c>
-      <c r="J125" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="126" spans="3:10" x14ac:dyDescent="0.25">
@@ -8103,10 +8486,10 @@
       </c>
       <c r="H126" s="7"/>
       <c r="I126" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J126" t="s">
         <v>1434</v>
-      </c>
-      <c r="J126" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="127" spans="3:10" x14ac:dyDescent="0.25">
@@ -8124,10 +8507,10 @@
       </c>
       <c r="H127" s="8"/>
       <c r="I127" t="s">
+        <v>1437</v>
+      </c>
+      <c r="J127" t="s">
         <v>1438</v>
-      </c>
-      <c r="J127" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="128" spans="3:10" x14ac:dyDescent="0.25">
@@ -8145,10 +8528,10 @@
       </c>
       <c r="H128" s="7"/>
       <c r="I128" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J128" t="s">
         <v>1444</v>
-      </c>
-      <c r="J128" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="129" spans="3:10" x14ac:dyDescent="0.25">
@@ -8166,10 +8549,10 @@
       </c>
       <c r="H129" s="9"/>
       <c r="I129" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J129" t="s">
         <v>1449</v>
-      </c>
-      <c r="J129" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="130" spans="3:10" x14ac:dyDescent="0.25">
@@ -8187,10 +8570,10 @@
       </c>
       <c r="H130" s="7"/>
       <c r="I130" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J130" t="s">
         <v>1451</v>
-      </c>
-      <c r="J130" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="131" spans="3:10" x14ac:dyDescent="0.25">
@@ -8208,10 +8591,10 @@
       </c>
       <c r="H131" s="7"/>
       <c r="I131" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J131" t="s">
         <v>1459</v>
-      </c>
-      <c r="J131" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="132" spans="3:10" x14ac:dyDescent="0.25">
@@ -8229,10 +8612,10 @@
       </c>
       <c r="H132" s="7"/>
       <c r="I132" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J132" t="s">
         <v>1463</v>
-      </c>
-      <c r="J132" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="133" spans="3:10" x14ac:dyDescent="0.25">
@@ -8250,10 +8633,10 @@
       </c>
       <c r="H133" s="7"/>
       <c r="I133" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J133" t="s">
         <v>1467</v>
-      </c>
-      <c r="J133" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="134" spans="3:10" x14ac:dyDescent="0.25">
@@ -8270,10 +8653,10 @@
         <v>726</v>
       </c>
       <c r="I134" t="s">
+        <v>1468</v>
+      </c>
+      <c r="J134" t="s">
         <v>1469</v>
-      </c>
-      <c r="J134" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="135" spans="3:10" x14ac:dyDescent="0.25">
@@ -8290,7 +8673,7 @@
         <v>728</v>
       </c>
       <c r="I135" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="J135" t="s">
         <v>1158</v>
@@ -8311,10 +8694,10 @@
       </c>
       <c r="H136" s="8"/>
       <c r="I136" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J136" t="s">
         <v>1472</v>
-      </c>
-      <c r="J136" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="137" spans="3:10" x14ac:dyDescent="0.25">
@@ -8331,10 +8714,10 @@
         <v>732</v>
       </c>
       <c r="I137" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J137" t="s">
         <v>1476</v>
-      </c>
-      <c r="J137" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="138" spans="3:10" x14ac:dyDescent="0.25">
@@ -8351,10 +8734,10 @@
         <v>734</v>
       </c>
       <c r="I138" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J138" t="s">
         <v>1480</v>
-      </c>
-      <c r="J138" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="139" spans="3:10" x14ac:dyDescent="0.25">
@@ -8372,10 +8755,10 @@
       </c>
       <c r="H139" s="8"/>
       <c r="I139" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J139" t="s">
         <v>1484</v>
-      </c>
-      <c r="J139" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="140" spans="3:10" x14ac:dyDescent="0.25">
@@ -8392,10 +8775,10 @@
         <v>738</v>
       </c>
       <c r="I140" t="s">
+        <v>1485</v>
+      </c>
+      <c r="J140" t="s">
         <v>1486</v>
-      </c>
-      <c r="J140" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="141" spans="3:10" x14ac:dyDescent="0.25">
@@ -8406,10 +8789,10 @@
         <v>740</v>
       </c>
       <c r="I141" t="s">
+        <v>1489</v>
+      </c>
+      <c r="J141" t="s">
         <v>1490</v>
-      </c>
-      <c r="J141" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="142" spans="3:10" x14ac:dyDescent="0.25">
@@ -8420,10 +8803,10 @@
         <v>742</v>
       </c>
       <c r="I142" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J142" t="s">
         <v>1492</v>
-      </c>
-      <c r="J142" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="143" spans="3:10" x14ac:dyDescent="0.25">
@@ -8434,10 +8817,10 @@
         <v>744</v>
       </c>
       <c r="I143" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J143" t="s">
         <v>1494</v>
-      </c>
-      <c r="J143" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="144" spans="3:10" x14ac:dyDescent="0.25">
@@ -8448,223 +8831,223 @@
         <v>748</v>
       </c>
       <c r="I144" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J144" t="s">
         <v>1496</v>
-      </c>
-      <c r="J144" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="145" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I145" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J145" t="s">
         <v>1498</v>
-      </c>
-      <c r="J145" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="146" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I146" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J146" t="s">
         <v>1514</v>
-      </c>
-      <c r="J146" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="147" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I147" t="s">
+        <v>1515</v>
+      </c>
+      <c r="J147" t="s">
         <v>1516</v>
-      </c>
-      <c r="J147" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="148" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I148" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J148" t="s">
         <v>1518</v>
-      </c>
-      <c r="J148" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="149" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I149" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J149" t="s">
         <v>1520</v>
-      </c>
-      <c r="J149" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="150" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I150" t="s">
+        <v>1525</v>
+      </c>
+      <c r="J150" t="s">
         <v>1526</v>
-      </c>
-      <c r="J150" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="151" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I151" t="s">
+        <v>1527</v>
+      </c>
+      <c r="J151" t="s">
         <v>1528</v>
-      </c>
-      <c r="J151" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="152" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I152" t="s">
+        <v>1543</v>
+      </c>
+      <c r="J152" t="s">
         <v>1544</v>
-      </c>
-      <c r="J152" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="153" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I153" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J153" t="s">
         <v>1546</v>
-      </c>
-      <c r="J153" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="154" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I154" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J154" t="s">
         <v>1548</v>
-      </c>
-      <c r="J154" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="155" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I155" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J155" t="s">
         <v>1552</v>
-      </c>
-      <c r="J155" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="156" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I156" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="J156" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="157" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I157" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="J157" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="158" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I158" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="J158" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="159" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I159" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="J159" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="160" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I160" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="J160" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="161" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I161" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="J161" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="162" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I162" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="J162" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="163" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I163" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="J163" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="164" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I164" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="J164" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="165" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I165" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="J165" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="166" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I166" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="J166" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="167" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I167" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="J167" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="168" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I168" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="J168" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="169" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I169" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="J169" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="170" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I170" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="J170" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="171" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I171" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="J171" t="s">
         <v>1187</v>
@@ -8672,34 +9055,306 @@
     </row>
     <row r="172" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I172" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="J172" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="173" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I173" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="J173" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="174" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I174" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="J174" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="175" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I175" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="J175" t="s">
-        <v>1614</v>
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="176" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I176" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J176" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="177" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I177" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J177" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="178" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I178" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J178" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="179" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I179" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J179" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="180" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I180" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="181" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I181" t="s">
+        <v>1634</v>
+      </c>
+      <c r="J181" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="182" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I182" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="183" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I183" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="184" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I184" t="s">
+        <v>1609</v>
+      </c>
+      <c r="J184" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="185" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I185" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J185" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="186" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I186" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J186" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="187" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I187" t="s">
+        <v>1657</v>
+      </c>
+      <c r="J187" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="188" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I188" t="s">
+        <v>1659</v>
+      </c>
+      <c r="J188" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="189" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I189" t="s">
+        <v>1666</v>
+      </c>
+      <c r="J189" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="190" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I190" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J190" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="191" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I191" t="s">
+        <v>1672</v>
+      </c>
+      <c r="J191" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="192" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I192" t="s">
+        <v>1676</v>
+      </c>
+      <c r="J192" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="193" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I193" t="s">
+        <v>1680</v>
+      </c>
+      <c r="J193" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="194" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I194" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J194" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="195" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I195" t="s">
+        <v>1688</v>
+      </c>
+      <c r="J195" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="196" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I196" t="s">
+        <v>1690</v>
+      </c>
+      <c r="J196" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="197" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I197" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J197" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="198" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I198" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J198" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="199" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I199" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J199" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="200" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I200" t="s">
+        <v>1698</v>
+      </c>
+      <c r="J200" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="201" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I201" t="s">
+        <v>1700</v>
+      </c>
+      <c r="J201" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="202" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I202" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J202" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="203" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I203" t="s">
+        <v>1704</v>
+      </c>
+      <c r="J203" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="204" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I204" t="s">
+        <v>1707</v>
+      </c>
+      <c r="J204" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="205" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I205" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J205" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="206" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I206" t="s">
+        <v>1721</v>
+      </c>
+      <c r="J206" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="207" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I207" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J207" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="208" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I208" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J208" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="209" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I209" t="s">
+        <v>1738</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1739</v>
       </c>
     </row>
     <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8711,10 +9366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G121"/>
+  <dimension ref="C1:G136"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9047,7 +9702,7 @@
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D27" t="s">
         <v>875</v>
@@ -9261,7 +9916,7 @@
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D42" t="s">
         <v>904</v>
@@ -9347,7 +10002,7 @@
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>914</v>
@@ -9791,7 +10446,7 @@
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>974</v>
@@ -10016,10 +10671,10 @@
         <v>1001</v>
       </c>
       <c r="F94" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G94" t="s">
         <v>1386</v>
-      </c>
-      <c r="G94" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.25">
@@ -10030,10 +10685,10 @@
         <v>1003</v>
       </c>
       <c r="F95" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G95" t="s">
         <v>1393</v>
-      </c>
-      <c r="G95" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.25">
@@ -10045,10 +10700,10 @@
       </c>
       <c r="E96" s="9"/>
       <c r="F96" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G96" t="s">
         <v>1409</v>
-      </c>
-      <c r="G96" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.25">
@@ -10060,10 +10715,10 @@
       </c>
       <c r="E97" s="8"/>
       <c r="F97" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G97" t="s">
         <v>1411</v>
-      </c>
-      <c r="G97" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
@@ -10074,10 +10729,10 @@
         <v>1009</v>
       </c>
       <c r="F98" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G98" t="s">
         <v>1432</v>
-      </c>
-      <c r="G98" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
@@ -10088,10 +10743,10 @@
         <v>1011</v>
       </c>
       <c r="F99" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G99" t="s">
         <v>1436</v>
-      </c>
-      <c r="G99" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
@@ -10103,155 +10758,161 @@
       </c>
       <c r="E100" s="8"/>
       <c r="F100" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G100" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>1371</v>
+      </c>
       <c r="F101" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G101" t="s">
         <v>1453</v>
-      </c>
-      <c r="G101" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E102" s="8"/>
       <c r="F102" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G102" t="s">
         <v>1455</v>
-      </c>
-      <c r="G102" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E103" s="8"/>
       <c r="F103" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G103" t="s">
         <v>1465</v>
-      </c>
-      <c r="G103" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E104" s="8"/>
       <c r="F104" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G104" t="s">
         <v>1478</v>
-      </c>
-      <c r="G104" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E105" s="8"/>
       <c r="F105" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G105" t="s">
         <v>1488</v>
-      </c>
-      <c r="G105" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G106" t="s">
         <v>1510</v>
-      </c>
-      <c r="G106" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G107" t="s">
         <v>1512</v>
-      </c>
-      <c r="G107" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="G108" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G109" t="s">
         <v>1532</v>
-      </c>
-      <c r="G109" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G110" t="s">
         <v>1534</v>
-      </c>
-      <c r="G110" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G111" t="s">
         <v>1536</v>
-      </c>
-      <c r="G111" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F112" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G112" t="s">
         <v>1538</v>
-      </c>
-      <c r="G112" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="113" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G113" t="s">
         <v>1540</v>
-      </c>
-      <c r="G113" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G114" t="s">
         <v>1542</v>
-      </c>
-      <c r="G114" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="115" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="G115" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="116" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F116" s="3" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="G116" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="117" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G117" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="118" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F118" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G118" t="s">
         <v>1109</v>
@@ -10259,23 +10920,146 @@
     </row>
     <row r="119" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="G119" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="120" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="G120" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="121" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
-        <v>1554</v>
+        <v>1615</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F123" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>1640</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>1649</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>1651</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="128" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="132" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="133" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="134" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G134" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="135" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1720</v>
       </c>
     </row>
   </sheetData>
@@ -10287,10 +11071,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C1:G95"/>
+  <dimension ref="C1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10299,7 +11083,7 @@
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
@@ -10627,7 +11411,7 @@
         <v>209</v>
       </c>
       <c r="F26" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G26" t="s">
         <v>713</v>
@@ -10655,7 +11439,7 @@
         <v>213</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>716</v>
@@ -10781,7 +11565,7 @@
         <v>302</v>
       </c>
       <c r="F37" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>820</v>
@@ -10795,7 +11579,7 @@
         <v>302</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>821</v>
@@ -11066,10 +11850,10 @@
         <v>355</v>
       </c>
       <c r="F57" t="s">
-        <v>1243</v>
+        <v>1740</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.25">
@@ -11080,10 +11864,10 @@
         <v>357</v>
       </c>
       <c r="F58" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.25">
@@ -11094,10 +11878,10 @@
         <v>359</v>
       </c>
       <c r="F59" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.25">
@@ -11108,10 +11892,10 @@
         <v>361</v>
       </c>
       <c r="F60" t="s">
-        <v>1505</v>
+        <v>1247</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>1274</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.25">
@@ -11122,10 +11906,10 @@
         <v>303</v>
       </c>
       <c r="F61" t="s">
-        <v>1319</v>
-      </c>
-      <c r="G61" t="s">
-        <v>1320</v>
+        <v>1504</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.25">
@@ -11136,10 +11920,10 @@
         <v>364</v>
       </c>
       <c r="F62" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="G62" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.25">
@@ -11150,10 +11934,10 @@
         <v>366</v>
       </c>
       <c r="F63" t="s">
-        <v>1323</v>
+        <v>1307</v>
       </c>
       <c r="G63" t="s">
-        <v>1324</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.25">
@@ -11165,10 +11949,10 @@
       </c>
       <c r="E64" s="8"/>
       <c r="F64" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="G64" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
@@ -11179,10 +11963,10 @@
         <v>408</v>
       </c>
       <c r="F65" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G65" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
@@ -11193,10 +11977,10 @@
         <v>410</v>
       </c>
       <c r="F66" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="G66" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.25">
@@ -11207,10 +11991,10 @@
         <v>412</v>
       </c>
       <c r="F67" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="G67" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
@@ -11221,10 +12005,10 @@
         <v>414</v>
       </c>
       <c r="F68" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="G68" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.25">
@@ -11236,10 +12020,10 @@
       </c>
       <c r="E69" s="8"/>
       <c r="F69" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="G69" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.25">
@@ -11250,10 +12034,10 @@
         <v>418</v>
       </c>
       <c r="F70" t="s">
-        <v>1374</v>
+        <v>1360</v>
       </c>
       <c r="G70" t="s">
-        <v>1375</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.25">
@@ -11264,10 +12048,10 @@
         <v>420</v>
       </c>
       <c r="F71" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G71" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.25">
@@ -11278,10 +12062,10 @@
         <v>422</v>
       </c>
       <c r="F72" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G72" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.25">
@@ -11292,10 +12076,10 @@
         <v>424</v>
       </c>
       <c r="F73" t="s">
-        <v>1401</v>
+        <v>1378</v>
       </c>
       <c r="G73" t="s">
-        <v>1402</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
@@ -11306,10 +12090,10 @@
         <v>425</v>
       </c>
       <c r="F74" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="G74" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.25">
@@ -11320,10 +12104,10 @@
         <v>427</v>
       </c>
       <c r="F75" t="s">
-        <v>1391</v>
+        <v>1404</v>
       </c>
       <c r="G75" t="s">
-        <v>1392</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="76" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11334,10 +12118,10 @@
         <v>429</v>
       </c>
       <c r="F76" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>1408</v>
+        <v>1390</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.25">
@@ -11349,10 +12133,10 @@
       </c>
       <c r="E77" s="8"/>
       <c r="F77" t="s">
-        <v>1415</v>
-      </c>
-      <c r="G77" t="s">
-        <v>1416</v>
+        <v>1406</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.25">
@@ -11363,10 +12147,10 @@
         <v>434</v>
       </c>
       <c r="F78" t="s">
-        <v>1428</v>
+        <v>1414</v>
       </c>
       <c r="G78" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.25">
@@ -11377,10 +12161,10 @@
         <v>474</v>
       </c>
       <c r="F79" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="G79" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.25">
@@ -11391,10 +12175,10 @@
         <v>469</v>
       </c>
       <c r="F80" t="s">
-        <v>1440</v>
+        <v>1429</v>
       </c>
       <c r="G80" t="s">
-        <v>1441</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.25">
@@ -11406,122 +12190,242 @@
       </c>
       <c r="E81" s="8"/>
       <c r="F81" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="G81" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="G82" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
       <c r="G83" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="G84" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
-        <v>1474</v>
+        <v>1460</v>
       </c>
       <c r="G85" t="s">
-        <v>1475</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="G86" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>1522</v>
+        <v>1481</v>
       </c>
       <c r="G87" t="s">
-        <v>1523</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="G88" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>1550</v>
+        <v>1523</v>
       </c>
       <c r="G89" t="s">
-        <v>1551</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
-        <v>1563</v>
+        <v>1549</v>
       </c>
       <c r="G90" t="s">
-        <v>1564</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>1586</v>
+        <v>1561</v>
       </c>
       <c r="G91" t="s">
-        <v>1587</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="G92" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="G93" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="G94" t="s">
-        <v>1602</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
-        <v>1615</v>
+        <v>1599</v>
       </c>
       <c r="G95" t="s">
-        <v>1616</v>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>1644</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>1723</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>1727</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1736</v>
       </c>
     </row>
   </sheetData>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Nouns" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="1801">
   <si>
     <t>Nouns</t>
   </si>
@@ -5311,9 +5311,6 @@
     <t>National / Public / Governmental</t>
   </si>
   <si>
-    <t xml:space="preserve">Achievement </t>
-  </si>
-  <si>
     <t>zustimmen</t>
   </si>
   <si>
@@ -5588,13 +5585,196 @@
   </si>
   <si>
     <t>bequem</t>
+  </si>
+  <si>
+    <t>aufmerksamkeitserregend</t>
+  </si>
+  <si>
+    <t>Attention-grabbing</t>
+  </si>
+  <si>
+    <t>anschauen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look at </t>
+  </si>
+  <si>
+    <t>gucken</t>
+  </si>
+  <si>
+    <t>Look / See / Watch</t>
+  </si>
+  <si>
+    <t>bestehen aus</t>
+  </si>
+  <si>
+    <t>Consist of</t>
+  </si>
+  <si>
+    <t>aufbauen aus</t>
+  </si>
+  <si>
+    <t>bilden aus</t>
+  </si>
+  <si>
+    <t>Das Gemälde</t>
+  </si>
+  <si>
+    <t>Picture / Painting</t>
+  </si>
+  <si>
+    <t>versuchen</t>
+  </si>
+  <si>
+    <t>strecken</t>
+  </si>
+  <si>
+    <t>Stretch / Extend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Zunge </t>
+  </si>
+  <si>
+    <t>Tongue</t>
+  </si>
+  <si>
+    <t>lebendig</t>
+  </si>
+  <si>
+    <t>Lively / Vivid</t>
+  </si>
+  <si>
+    <t>ökologisch</t>
+  </si>
+  <si>
+    <t>Ecological</t>
+  </si>
+  <si>
+    <t>geeignet</t>
+  </si>
+  <si>
+    <t>Appropriate / Convenient</t>
+  </si>
+  <si>
+    <t>einzeln</t>
+  </si>
+  <si>
+    <t>Single / Individual / Separate</t>
+  </si>
+  <si>
+    <t>Der / Die Besitz(er) / (in)</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Die Fläche</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Die Terrasse</t>
+  </si>
+  <si>
+    <t>مصطبة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Dach </t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>Die Gestaltung</t>
+  </si>
+  <si>
+    <t>Design / Layout</t>
+  </si>
+  <si>
+    <t>Die Nutzung</t>
+  </si>
+  <si>
+    <t>Die Achtung</t>
+  </si>
+  <si>
+    <t>Warning / Attention</t>
+  </si>
+  <si>
+    <t>Die Hilfsbereitschaft</t>
+  </si>
+  <si>
+    <t>Willingness to help</t>
+  </si>
+  <si>
+    <t>einsam</t>
+  </si>
+  <si>
+    <t>Lonely / Alone</t>
+  </si>
+  <si>
+    <t>vermutlich</t>
+  </si>
+  <si>
+    <t>Probably</t>
+  </si>
+  <si>
+    <t>wahrscheinlich</t>
+  </si>
+  <si>
+    <t>abwesend</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>anwesend</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Die Zuneigung</t>
+  </si>
+  <si>
+    <t>Affection</t>
+  </si>
+  <si>
+    <t>vertrauen</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Die Leihe</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>genießen</t>
+  </si>
+  <si>
+    <t>Enjoy</t>
+  </si>
+  <si>
+    <t>ehemalig</t>
+  </si>
+  <si>
+    <t>Former / Past</t>
+  </si>
+  <si>
+    <t>Die Verabschiedung</t>
+  </si>
+  <si>
+    <t>farewell (الوداع)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5636,8 +5816,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5647,6 +5834,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5664,7 +5863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5685,6 +5884,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5968,8 +6173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView topLeftCell="G198" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H198" activeCellId="1" sqref="I210 H198"/>
+    <sheetView tabSelected="1" topLeftCell="G208" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K215" sqref="K215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6595,11 +6800,11 @@
       <c r="D33" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>487</v>
+      <c r="F33" t="s">
+        <v>1755</v>
       </c>
       <c r="G33" t="s">
-        <v>488</v>
+        <v>1756</v>
       </c>
       <c r="I33" t="s">
         <v>810</v>
@@ -6616,10 +6821,10 @@
         <v>75</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G34" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I34" t="s">
         <v>812</v>
@@ -6636,10 +6841,10 @@
         <v>77</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G35" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I35" t="s">
         <v>814</v>
@@ -6656,10 +6861,10 @@
         <v>79</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" t="s">
@@ -6677,10 +6882,10 @@
         <v>81</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G37" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I37" t="s">
         <v>827</v>
@@ -6697,10 +6902,10 @@
         <v>83</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G38" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I38" t="s">
         <v>829</v>
@@ -6717,10 +6922,10 @@
         <v>85</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G39" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I39" t="s">
         <v>831</v>
@@ -6737,10 +6942,10 @@
         <v>87</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G40" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="I40" t="s">
         <v>1133</v>
@@ -6757,10 +6962,10 @@
         <v>89</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G41" t="s">
-        <v>503</v>
+        <v>414</v>
       </c>
       <c r="I41" t="s">
         <v>1149</v>
@@ -6777,10 +6982,10 @@
         <v>93</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G42" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" t="s">
@@ -6798,10 +7003,10 @@
         <v>95</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G43" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I43" t="s">
         <v>1155</v>
@@ -6818,10 +7023,10 @@
         <v>97</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G44" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" t="s">
@@ -6839,10 +7044,10 @@
         <v>98</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G45" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I45" t="s">
         <v>1159</v>
@@ -6859,10 +7064,10 @@
         <v>101</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G46" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I46" t="s">
         <v>1161</v>
@@ -6879,10 +7084,10 @@
         <v>103</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G47" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I47" t="s">
         <v>1163</v>
@@ -6899,10 +7104,10 @@
         <v>105</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G48" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" t="s">
@@ -6920,10 +7125,10 @@
         <v>107</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G49" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I49" t="s">
         <v>1166</v>
@@ -6940,10 +7145,10 @@
         <v>109</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G50" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I50" t="s">
         <v>1172</v>
@@ -6960,10 +7165,10 @@
         <v>111</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G51" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I51" t="s">
         <v>1176</v>
@@ -6980,10 +7185,10 @@
         <v>113</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G52" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I52" t="s">
         <v>1178</v>
@@ -7000,10 +7205,10 @@
         <v>115</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G53" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I53" t="s">
         <v>1186</v>
@@ -7020,10 +7225,10 @@
         <v>117</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G54" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" t="s">
@@ -7041,10 +7246,10 @@
         <v>119</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="G55" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="I55" t="s">
         <v>1201</v>
@@ -7061,10 +7266,10 @@
         <v>121</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G56" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I56" t="s">
         <v>1203</v>
@@ -7081,10 +7286,10 @@
         <v>123</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G57" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I57" t="s">
         <v>1205</v>
@@ -7101,10 +7306,10 @@
         <v>125</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G58" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I58" t="s">
         <v>1207</v>
@@ -7121,10 +7326,10 @@
         <v>127</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G59" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I59" t="s">
         <v>1209</v>
@@ -7141,10 +7346,10 @@
         <v>129</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G60" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I60" t="s">
         <v>1211</v>
@@ -7161,10 +7366,10 @@
         <v>131</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G61" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I61" t="s">
         <v>1213</v>
@@ -7181,10 +7386,10 @@
         <v>133</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G62" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I62" t="s">
         <v>1215</v>
@@ -7201,10 +7406,10 @@
         <v>135</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G63" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="I63" t="s">
         <v>1217</v>
@@ -7221,10 +7426,10 @@
         <v>137</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G64" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I64" t="s">
         <v>1219</v>
@@ -7241,10 +7446,10 @@
         <v>139</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G65" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I65" t="s">
         <v>1221</v>
@@ -7261,10 +7466,10 @@
         <v>155</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G66" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I66" t="s">
         <v>1223</v>
@@ -7281,10 +7486,10 @@
         <v>162</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G67" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I67" t="s">
         <v>1225</v>
@@ -7301,10 +7506,10 @@
         <v>164</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G68" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I68" t="s">
         <v>1227</v>
@@ -7321,10 +7526,10 @@
         <v>166</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G69" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I69" t="s">
         <v>1229</v>
@@ -7341,10 +7546,10 @@
         <v>168</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G70" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I70" t="s">
         <v>1231</v>
@@ -7361,10 +7566,10 @@
         <v>170</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G71" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" t="s">
@@ -7382,10 +7587,10 @@
         <v>172</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G72" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I72" t="s">
         <v>1237</v>
@@ -7402,10 +7607,10 @@
         <v>29</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G73" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I73" t="s">
         <v>1239</v>
@@ -7422,10 +7627,10 @@
         <v>179</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G74" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I74" t="s">
         <v>1249</v>
@@ -7442,10 +7647,10 @@
         <v>181</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G75" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I75" t="s">
         <v>1251</v>
@@ -7462,10 +7667,10 @@
         <v>183</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G76" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I76" t="s">
         <v>1252</v>
@@ -7482,10 +7687,10 @@
         <v>185</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G77" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I77" t="s">
         <v>1254</v>
@@ -7502,10 +7707,10 @@
         <v>187</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G78" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I78" t="s">
         <v>1256</v>
@@ -7522,10 +7727,10 @@
         <v>189</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G79" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I79" t="s">
         <v>1258</v>
@@ -7542,10 +7747,10 @@
         <v>191</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G80" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I80" t="s">
         <v>1266</v>
@@ -7562,10 +7767,10 @@
         <v>193</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G81" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I81" t="s">
         <v>1268</v>
@@ -7582,10 +7787,10 @@
         <v>195</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G82" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I82" t="s">
         <v>1270</v>
@@ -7601,11 +7806,11 @@
       <c r="D83" t="s">
         <v>201</v>
       </c>
-      <c r="F83" t="s">
-        <v>604</v>
+      <c r="F83" s="3" t="s">
+        <v>602</v>
       </c>
       <c r="G83" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I83" t="s">
         <v>1272</v>
@@ -7622,10 +7827,10 @@
         <v>205</v>
       </c>
       <c r="F84" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G84" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I84" t="s">
         <v>1275</v>
@@ -7642,10 +7847,10 @@
         <v>207</v>
       </c>
       <c r="F85" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G85" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I85" t="s">
         <v>1277</v>
@@ -7662,10 +7867,10 @@
         <v>215</v>
       </c>
       <c r="F86" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G86" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I86" t="s">
         <v>1279</v>
@@ -7682,10 +7887,10 @@
         <v>216</v>
       </c>
       <c r="F87" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G87" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I87" t="s">
         <v>1283</v>
@@ -7702,10 +7907,10 @@
         <v>219</v>
       </c>
       <c r="F88" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G88" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I88" t="s">
         <v>1285</v>
@@ -7722,10 +7927,10 @@
         <v>221</v>
       </c>
       <c r="F89" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="G89" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="I89" t="s">
         <v>1289</v>
@@ -7742,10 +7947,10 @@
         <v>223</v>
       </c>
       <c r="F90" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G90" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I90" t="s">
         <v>1291</v>
@@ -7762,10 +7967,10 @@
         <v>225</v>
       </c>
       <c r="F91" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G91" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I91" t="s">
         <v>1293</v>
@@ -7782,10 +7987,10 @@
         <v>227</v>
       </c>
       <c r="F92" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G92" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I92" t="s">
         <v>1295</v>
@@ -7802,10 +8007,10 @@
         <v>229</v>
       </c>
       <c r="F93" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G93" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I93" t="s">
         <v>1299</v>
@@ -7822,10 +8027,10 @@
         <v>233</v>
       </c>
       <c r="F94" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G94" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I94" t="s">
         <v>1301</v>
@@ -7842,10 +8047,10 @@
         <v>241</v>
       </c>
       <c r="F95" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G95" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I95" t="s">
         <v>1305</v>
@@ -7862,10 +8067,10 @@
         <v>243</v>
       </c>
       <c r="F96" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G96" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I96" t="s">
         <v>1309</v>
@@ -7882,10 +8087,10 @@
         <v>245</v>
       </c>
       <c r="F97" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G97" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I97" t="s">
         <v>1314</v>
@@ -7902,10 +8107,10 @@
         <v>249</v>
       </c>
       <c r="F98" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G98" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I98" t="s">
         <v>1316</v>
@@ -7922,10 +8127,10 @@
         <v>250</v>
       </c>
       <c r="F99" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G99" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I99" t="s">
         <v>1317</v>
@@ -7942,10 +8147,10 @@
         <v>253</v>
       </c>
       <c r="F100" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G100" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I100" t="s">
         <v>1321</v>
@@ -7962,10 +8167,10 @@
         <v>257</v>
       </c>
       <c r="F101" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G101" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I101" t="s">
         <v>1325</v>
@@ -7982,10 +8187,10 @@
         <v>259</v>
       </c>
       <c r="F102" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G102" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I102" t="s">
         <v>1329</v>
@@ -8002,10 +8207,10 @@
         <v>261</v>
       </c>
       <c r="F103" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G103" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="I103" t="s">
         <v>1331</v>
@@ -8022,10 +8227,10 @@
         <v>263</v>
       </c>
       <c r="F104" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G104" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I104" t="s">
         <v>1351</v>
@@ -8042,10 +8247,10 @@
         <v>265</v>
       </c>
       <c r="F105" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G105" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I105" t="s">
         <v>1354</v>
@@ -8062,10 +8267,10 @@
         <v>241</v>
       </c>
       <c r="F106" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G106" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I106" t="s">
         <v>1356</v>
@@ -8082,10 +8287,10 @@
         <v>268</v>
       </c>
       <c r="F107" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G107" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I107" t="s">
         <v>1358</v>
@@ -8102,10 +8307,10 @@
         <v>270</v>
       </c>
       <c r="F108" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G108" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I108" t="s">
         <v>1362</v>
@@ -8122,10 +8327,10 @@
         <v>272</v>
       </c>
       <c r="F109" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G109" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" t="s">
@@ -8143,10 +8348,10 @@
         <v>274</v>
       </c>
       <c r="F110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G110" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" t="s">
@@ -8164,10 +8369,10 @@
         <v>276</v>
       </c>
       <c r="F111" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G111" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" t="s">
@@ -8185,10 +8390,10 @@
         <v>278</v>
       </c>
       <c r="F112" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G112" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" t="s">
@@ -8206,10 +8411,10 @@
         <v>282</v>
       </c>
       <c r="F113" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G113" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" t="s">
@@ -8227,10 +8432,10 @@
         <v>284</v>
       </c>
       <c r="F114" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G114" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" t="s">
@@ -8248,10 +8453,10 @@
         <v>286</v>
       </c>
       <c r="F115" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G115" t="s">
-        <v>172</v>
+        <v>680</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" t="s">
@@ -8269,10 +8474,10 @@
         <v>288</v>
       </c>
       <c r="F116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G116" t="s">
-        <v>683</v>
+        <v>172</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" t="s">
@@ -8290,10 +8495,10 @@
         <v>290</v>
       </c>
       <c r="F117" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G117" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" t="s">
@@ -8311,10 +8516,10 @@
         <v>292</v>
       </c>
       <c r="F118" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G118" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" t="s">
@@ -8332,10 +8537,10 @@
         <v>294</v>
       </c>
       <c r="F119" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G119" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" t="s">
@@ -8353,10 +8558,10 @@
         <v>296</v>
       </c>
       <c r="F120" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G120" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" t="s">
@@ -8374,10 +8579,10 @@
         <v>298</v>
       </c>
       <c r="F121" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G121" t="s">
-        <v>294</v>
+        <v>691</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" t="s">
@@ -8395,10 +8600,10 @@
         <v>305</v>
       </c>
       <c r="F122" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G122" t="s">
-        <v>694</v>
+        <v>294</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" t="s">
@@ -8416,10 +8621,10 @@
         <v>307</v>
       </c>
       <c r="F123" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G123" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" t="s">
@@ -8437,10 +8642,10 @@
         <v>309</v>
       </c>
       <c r="F124" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G124" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" t="s">
@@ -8458,10 +8663,10 @@
         <v>311</v>
       </c>
       <c r="F125" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G125" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" t="s">
@@ -8479,10 +8684,10 @@
         <v>313</v>
       </c>
       <c r="F126" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G126" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" t="s">
@@ -8500,10 +8705,10 @@
         <v>315</v>
       </c>
       <c r="F127" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G127" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" t="s">
@@ -8521,10 +8726,10 @@
         <v>317</v>
       </c>
       <c r="F128" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G128" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" t="s">
@@ -8542,10 +8747,10 @@
         <v>333</v>
       </c>
       <c r="F129" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G129" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H129" s="9"/>
       <c r="I129" t="s">
@@ -8563,10 +8768,10 @@
         <v>333</v>
       </c>
       <c r="F130" t="s">
-        <v>745</v>
+        <v>707</v>
       </c>
       <c r="G130" t="s">
-        <v>746</v>
+        <v>708</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" t="s">
@@ -8584,10 +8789,10 @@
         <v>368</v>
       </c>
       <c r="F131" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
       <c r="G131" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" t="s">
@@ -8605,10 +8810,10 @@
         <v>370</v>
       </c>
       <c r="F132" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="G132" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" t="s">
@@ -8626,10 +8831,10 @@
         <v>372</v>
       </c>
       <c r="F133" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G133" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" t="s">
@@ -8647,10 +8852,10 @@
         <v>374</v>
       </c>
       <c r="F134" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G134" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I134" t="s">
         <v>1468</v>
@@ -8667,10 +8872,10 @@
         <v>376</v>
       </c>
       <c r="F135" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G135" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I135" t="s">
         <v>1470</v>
@@ -8687,10 +8892,10 @@
         <v>378</v>
       </c>
       <c r="F136" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G136" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" t="s">
@@ -8708,10 +8913,10 @@
         <v>380</v>
       </c>
       <c r="F137" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G137" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I137" t="s">
         <v>1475</v>
@@ -8728,10 +8933,10 @@
         <v>382</v>
       </c>
       <c r="F138" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G138" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I138" t="s">
         <v>1479</v>
@@ -8748,10 +8953,10 @@
         <v>384</v>
       </c>
       <c r="F139" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G139" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" t="s">
@@ -8769,10 +8974,10 @@
         <v>386</v>
       </c>
       <c r="F140" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G140" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I140" t="s">
         <v>1485</v>
@@ -8783,10 +8988,10 @@
     </row>
     <row r="141" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F141" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G141" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I141" t="s">
         <v>1489</v>
@@ -8797,10 +9002,10 @@
     </row>
     <row r="142" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F142" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G142" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I142" t="s">
         <v>1491</v>
@@ -8811,10 +9016,10 @@
     </row>
     <row r="143" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F143" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G143" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="I143" t="s">
         <v>1493</v>
@@ -8825,10 +9030,10 @@
     </row>
     <row r="144" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F144" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="G144" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="I144" t="s">
         <v>1495</v>
@@ -8837,15 +9042,21 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I145" t="s">
+    <row r="145" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>747</v>
+      </c>
+      <c r="G145" t="s">
+        <v>748</v>
+      </c>
+      <c r="I145" s="13" t="s">
         <v>1497</v>
       </c>
       <c r="J145" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I146" t="s">
         <v>1513</v>
       </c>
@@ -8853,7 +9064,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I147" t="s">
         <v>1515</v>
       </c>
@@ -8861,7 +9072,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I148" t="s">
         <v>1517</v>
       </c>
@@ -8869,7 +9080,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I149" t="s">
         <v>1519</v>
       </c>
@@ -8877,7 +9088,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I150" t="s">
         <v>1525</v>
       </c>
@@ -8885,7 +9096,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I151" t="s">
         <v>1527</v>
       </c>
@@ -8893,7 +9104,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I152" t="s">
         <v>1543</v>
       </c>
@@ -8901,7 +9112,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I153" t="s">
         <v>1545</v>
       </c>
@@ -8909,7 +9120,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I154" t="s">
         <v>1547</v>
       </c>
@@ -8917,7 +9128,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I155" t="s">
         <v>1551</v>
       </c>
@@ -8925,7 +9136,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I156" t="s">
         <v>1553</v>
       </c>
@@ -8933,7 +9144,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I157" t="s">
         <v>1555</v>
       </c>
@@ -8941,7 +9152,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I158" t="s">
         <v>1557</v>
       </c>
@@ -8949,7 +9160,8 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="H159" s="14"/>
       <c r="I159" t="s">
         <v>1563</v>
       </c>
@@ -8957,7 +9169,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I160" t="s">
         <v>1567</v>
       </c>
@@ -9093,7 +9305,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I177" t="s">
         <v>1622</v>
       </c>
@@ -9101,7 +9313,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I178" t="s">
         <v>1626</v>
       </c>
@@ -9109,7 +9321,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I179" t="s">
         <v>1627</v>
       </c>
@@ -9117,7 +9329,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I180" t="s">
         <v>1631</v>
       </c>
@@ -9125,7 +9337,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I181" t="s">
         <v>1634</v>
       </c>
@@ -9133,7 +9345,8 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H182" s="8"/>
       <c r="I182" t="s">
         <v>1636</v>
       </c>
@@ -9141,7 +9354,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I183" t="s">
         <v>1642</v>
       </c>
@@ -9149,212 +9362,304 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I184" t="s">
-        <v>1609</v>
+        <v>1652</v>
       </c>
       <c r="J184" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="185" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I185" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="J185" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="186" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I186" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="J186" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="187" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I187" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="J187" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="188" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I188" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="J188" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="189" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I189" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="J189" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="190" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I190" t="s">
         <v>1671</v>
       </c>
       <c r="J190" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="191" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I191" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="J191" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="192" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I192" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="J192" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="193" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H193" s="8"/>
       <c r="I193" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="J193" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="194" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H194" s="8"/>
       <c r="I194" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J194" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="195" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I195" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="J195" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="196" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I196" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="J196" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="197" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H197" s="8"/>
       <c r="I197" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J197" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="198" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I198" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="J198" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="199" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I199" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="J199" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="200" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I200" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="J200" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="201" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="201" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I201" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J201" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="202" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="202" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I202" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="J202" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="203" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="203" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I203" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="J203" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="204" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="204" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H204" s="8"/>
       <c r="I204" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J204" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="205" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="205" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I205" t="s">
-        <v>1709</v>
+        <v>1720</v>
       </c>
       <c r="J205" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="206" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="206" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I206" t="s">
-        <v>1721</v>
+        <v>1728</v>
       </c>
       <c r="J206" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="207" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="207" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I207" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="J207" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="208" spans="9:10" x14ac:dyDescent="0.25">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="208" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I208" t="s">
-        <v>1731</v>
+        <v>1737</v>
       </c>
       <c r="J208" t="s">
-        <v>1732</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="209" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I209" t="s">
-        <v>1738</v>
+        <v>1750</v>
       </c>
       <c r="J209" t="s">
-        <v>1739</v>
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="210" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I210" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="211" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I211" t="s">
+        <v>1767</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="212" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I212" t="s">
+        <v>1769</v>
+      </c>
+      <c r="J212" s="15" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="213" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I213" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="214" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I214" t="s">
+        <v>1773</v>
+      </c>
+      <c r="J214" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="215" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I215" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J215" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="216" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I216" t="s">
+        <v>1776</v>
+      </c>
+      <c r="J216" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="217" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I217" t="s">
+        <v>1778</v>
+      </c>
+      <c r="J217" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="218" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I218" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J218" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="219" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I219" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J219" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="220" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I220" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J220" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9366,10 +9671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G136"/>
+  <dimension ref="C1:G145"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9964,7 +10269,7 @@
       <c r="D45" t="s">
         <v>1028</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="3" t="s">
         <v>1088</v>
       </c>
@@ -10422,7 +10727,7 @@
       <c r="D77" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="E77" s="8"/>
+      <c r="E77" s="12"/>
       <c r="F77" t="s">
         <v>1264</v>
       </c>
@@ -10538,7 +10843,7 @@
       <c r="D85" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="E85" s="8"/>
+      <c r="E85" s="12"/>
       <c r="F85" t="s">
         <v>1337</v>
       </c>
@@ -10625,7 +10930,7 @@
       <c r="D91" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="E91" s="8"/>
+      <c r="E91" s="12"/>
       <c r="F91" t="s">
         <v>1380</v>
       </c>
@@ -10713,7 +11018,7 @@
       <c r="D97" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="E97" s="8"/>
+      <c r="E97" s="12"/>
       <c r="F97" t="s">
         <v>1410</v>
       </c>
@@ -10766,7 +11071,7 @@
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>1371</v>
@@ -10788,7 +11093,7 @@
       </c>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E103" s="8"/>
+      <c r="E103" s="12"/>
       <c r="F103" t="s">
         <v>1464</v>
       </c>
@@ -10806,7 +11111,7 @@
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E105" s="8"/>
+      <c r="E105" s="12"/>
       <c r="F105" t="s">
         <v>1487</v>
       </c>
@@ -10952,7 +11257,7 @@
     </row>
     <row r="123" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F123" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="G123" t="s">
         <v>1633</v>
@@ -10976,39 +11281,39 @@
     </row>
     <row r="126" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G126" t="s">
         <v>1649</v>
-      </c>
-      <c r="G126" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="127" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G127" t="s">
         <v>1651</v>
-      </c>
-      <c r="G127" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="128" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G128" t="s">
         <v>1662</v>
-      </c>
-      <c r="G128" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="129" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G129" t="s">
         <v>1664</v>
-      </c>
-      <c r="G129" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="130" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G130" t="s">
         <v>1532</v>
@@ -11016,31 +11321,31 @@
     </row>
     <row r="131" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G131" t="s">
         <v>1669</v>
-      </c>
-      <c r="G131" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="132" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F132" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G132" t="s">
         <v>1682</v>
-      </c>
-      <c r="G132" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="133" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F133" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G133" t="s">
         <v>1684</v>
-      </c>
-      <c r="G133" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="134" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F134" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="G134" t="s">
         <v>916</v>
@@ -11048,18 +11353,90 @@
     </row>
     <row r="135" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F135" t="s">
+        <v>1712</v>
+      </c>
+      <c r="G135" t="s">
         <v>1713</v>
-      </c>
-      <c r="G135" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="136" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
+        <v>1718</v>
+      </c>
+      <c r="G136" t="s">
         <v>1719</v>
       </c>
-      <c r="G136" t="s">
-        <v>1720</v>
+    </row>
+    <row r="137" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="138" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="139" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="140" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G142" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>1791</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="145" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1796</v>
       </c>
     </row>
   </sheetData>
@@ -11071,10 +11448,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C1:G110"/>
+  <dimension ref="C1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11850,7 +12227,7 @@
         <v>355</v>
       </c>
       <c r="F57" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>1242</v>
@@ -12245,7 +12622,7 @@
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F88" t="s">
+      <c r="F88" s="13" t="s">
         <v>1521</v>
       </c>
       <c r="G88" t="s">
@@ -12350,82 +12727,170 @@
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
+        <v>1673</v>
+      </c>
+      <c r="G101" t="s">
         <v>1674</v>
-      </c>
-      <c r="G101" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G102" t="s">
         <v>1678</v>
-      </c>
-      <c r="G102" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G103" t="s">
         <v>1711</v>
-      </c>
-      <c r="G103" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G104" t="s">
         <v>1715</v>
-      </c>
-      <c r="G104" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G105" t="s">
         <v>1717</v>
-      </c>
-      <c r="G105" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="106" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
+        <v>1722</v>
+      </c>
+      <c r="G106" t="s">
         <v>1723</v>
-      </c>
-      <c r="G106" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="107" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G107" t="s">
         <v>1725</v>
-      </c>
-      <c r="G107" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="108" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G108" t="s">
         <v>1727</v>
-      </c>
-      <c r="G108" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="109" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G109" t="s">
         <v>1733</v>
-      </c>
-      <c r="G109" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="110" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G110" t="s">
         <v>1735</v>
       </c>
-      <c r="G110" t="s">
-        <v>1736</v>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>1759</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1798</v>
       </c>
     </row>
   </sheetData>
